--- a/2020/August/All Detail/09.08.2020/MC Bank Statement August 2020.xlsx
+++ b/2020/August/All Detail/09.08.2020/MC Bank Statement August 2020.xlsx
@@ -1487,6 +1487,9 @@
     <xf numFmtId="0" fontId="45" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1530,9 +1533,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1626,7 +1626,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1638,7 +1638,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1661,14 +1661,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1994,21 +1994,21 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
       <c r="A3" s="42"/>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="B4" s="43" t="s">
@@ -2121,7 +2121,7 @@
       <c r="C10" s="49">
         <v>1200000</v>
       </c>
-      <c r="D10" s="156">
+      <c r="D10" s="141">
         <v>1200000</v>
       </c>
       <c r="E10" s="48">
@@ -3049,7 +3049,7 @@
   <dimension ref="A1:AL222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection sqref="A1:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21.75" customHeight="1"/>
@@ -3074,24 +3074,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="26.25">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="145"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="146"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:38" ht="21.75" customHeight="1">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="148"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="149"/>
       <c r="F2" s="5"/>
       <c r="G2" s="13"/>
       <c r="H2" s="2"/>
@@ -3275,7 +3275,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="109">
-        <v>171300</v>
+        <v>188200</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="66"/>
@@ -3321,7 +3321,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="110">
-        <v>1533116</v>
+        <v>1516216</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="66"/>
@@ -3696,13 +3696,13 @@
       <c r="AL14" s="8"/>
     </row>
     <row r="15" spans="1:38" ht="21.75" customHeight="1">
-      <c r="A15" s="149" t="s">
+      <c r="A15" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="150"/>
-      <c r="C15" s="150"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="151"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="152"/>
       <c r="F15" s="5"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
@@ -3940,7 +3940,7 @@
         <v>22</v>
       </c>
       <c r="E20" s="125">
-        <v>176531</v>
+        <v>159631</v>
       </c>
       <c r="G20" s="36"/>
       <c r="H20" s="8"/>
@@ -10756,32 +10756,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="154" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
     </row>
     <row r="3" spans="1:5" ht="25.5">
       <c r="A3" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="154">
+      <c r="B3" s="155">
         <f ca="1">TODAY()</f>
         <v>44052</v>
       </c>
-      <c r="C3" s="155"/>
+      <c r="C3" s="156"/>
       <c r="D3" s="138"/>
       <c r="E3" s="137"/>
     </row>
